--- a/medicine/Psychotrope/Gérald_Olivier/Gérald_Olivier.xlsx
+++ b/medicine/Psychotrope/Gérald_Olivier/Gérald_Olivier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>G%C3%A9rald_Olivier</t>
+          <t>Gérald_Olivier</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gérald Olivier, né le 29 octobre 1959 à Neuilly-sur-Seine, est un journaliste franco-américain. Ancien rédacteur en chef de Spectacle du Monde, il est éditorialiste à Atlantico et à Causeur et consultant en communications et médias.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>G%C3%A9rald_Olivier</t>
+          <t>Gérald_Olivier</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Formation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gérald Olivier est titulaire d'un Master of Arts en Histoire américaine de l'université de Californie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gérald Olivier est titulaire d'un Master of Arts en Histoire américaine de l'université de Californie.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>G%C3%A9rald_Olivier</t>
+          <t>Gérald_Olivier</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,11 +556,13 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'août 1998 à avril 2011, Gérald Olivier est rédacteur en chef du mensuel Le Spectacle du monde[1]. Licencié par Guillaume Roquette, directeur général du groupe de presse Valmonde en avril 2011[2], il devient consultant en communications et médias[1].
-En janvier 2012, il commence à tenir une chronique hebdomadaire sur l'actualité américaine, intitulée « Trans-Amérique Express », sur le site d'information Atlantico[3],[4][réf. à confirmer].
-En octobre 2012, il publie son premier livre, un portrait du candidat républicain Mitt Romney en pleine campagne de l'élection présidentielle américaine[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'août 1998 à avril 2011, Gérald Olivier est rédacteur en chef du mensuel Le Spectacle du monde. Licencié par Guillaume Roquette, directeur général du groupe de presse Valmonde en avril 2011, il devient consultant en communications et médias.
+En janvier 2012, il commence à tenir une chronique hebdomadaire sur l'actualité américaine, intitulée « Trans-Amérique Express », sur le site d'information Atlantico,[réf. à confirmer].
+En octobre 2012, il publie son premier livre, un portrait du candidat républicain Mitt Romney en pleine campagne de l'élection présidentielle américaine.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>G%C3%A9rald_Olivier</t>
+          <t>Gérald_Olivier</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Mitt Romney : Pour le renouveau du mythe américain, Picollec, 2012.
 Kennedy, le Temps de l'Amérique: Comment John et Jackie ont changé le monde, Picollec, 2013.
